--- a/Design&Spec/Api_List.xlsx
+++ b/Design&Spec/Api_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86448C3-17B4-4469-BCA9-CBAEA9066D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4EA443-4F68-4A94-A31A-3D4248E607F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="2970" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3555" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>API</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>/item/status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +632,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,6 +688,9 @@
         <f>LOWER("/"&amp;A2&amp;C2)</f>
         <v>/auth/login</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>

--- a/Design&Spec/Api_List.xlsx
+++ b/Design&Spec/Api_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4EA443-4F68-4A94-A31A-3D4248E607F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D066FA2-D8BE-4457-8E18-DDE7AED8212D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3555" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1860" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Api" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/findAccount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,10 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tid,password,email,telNumber,accountType,coName,postalAddr,GSTIN,bankDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sendto,text</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,6 +260,14 @@
   </si>
   <si>
     <t>id,password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/findaccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetId,password,email,telNumber,accountType,coName,postalAddr,GSTIN,bankDetail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,16 +662,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,10 +689,10 @@
         <v>/auth/login</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>D2&amp;"."&amp;B2&amp;" = "&amp;G2</f>
@@ -714,7 +714,7 @@
         <v>/auth/logout</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H26" si="1">D3&amp;"."&amp;B3&amp;" = "&amp;G3</f>
@@ -736,7 +736,7 @@
         <v>/auth/login</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -758,13 +758,13 @@
         <v>/account/register</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -786,10 +786,10 @@
         <v>/account/unregister</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -804,17 +804,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/account/findaccount</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/account/findaccount</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -829,17 +829,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/account/query/sellerdate</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -854,17 +854,17 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/account/query</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -876,23 +876,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/account/update</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -901,7 +901,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -911,7 +911,7 @@
         <v>/cart</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -920,20 +920,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/cart</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -952,7 +952,7 @@
         <v>/message</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -971,10 +971,10 @@
         <v>/message</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -983,20 +983,20 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/martquery/category</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1005,20 +1005,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/martquery/manufacturer</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1027,23 +1027,23 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/martquery/list</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1052,23 +1052,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/martquery/detail</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1077,23 +1077,23 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/order/all</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1102,23 +1102,23 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/order/detail</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -1137,10 +1137,10 @@
         <v>/purchase</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1149,23 +1149,23 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/seller/checkstatus</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1174,23 +1174,23 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/seller/saleslist</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1199,23 +1199,23 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/seller/overview</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1224,23 +1224,23 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/seller/item</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>/seller/item</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1249,23 +1249,23 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/seller/item/status</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="1"/>

--- a/Design&Spec/Api_List.xlsx
+++ b/Design&Spec/Api_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSD-assignment\Design&amp;Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D066FA2-D8BE-4457-8E18-DDE7AED8212D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4D341A-B24F-4DBB-9558-097F4CDD2707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="1860" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>accountId,password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>targetId,password,email,telNumber,accountType,coName,postalAddr,GSTIN,bankDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>/auth/login</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -786,7 +786,7 @@
         <v>/account/unregister</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
@@ -804,14 +804,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/account/findaccount</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -836,7 +836,7 @@
         <v>/account/query/sellerdate</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
@@ -861,7 +861,7 @@
         <v>/account/query</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -886,10 +886,10 @@
         <v>/account/update</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -930,7 +930,7 @@
         <v>/cart</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -971,7 +971,7 @@
         <v>/message</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -1040,7 +1040,7 @@
         <v>/martquery/list</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1065,7 +1065,7 @@
         <v>/martquery/detail</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1090,7 +1090,7 @@
         <v>/order/all</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
@@ -1115,7 +1115,7 @@
         <v>/order/detail</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
@@ -1137,7 +1137,7 @@
         <v>/purchase</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>/seller/checkstatus</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>16</v>
@@ -1187,7 +1187,7 @@
         <v>/seller/saleslist</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
@@ -1212,7 +1212,7 @@
         <v>/seller/overview</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>16</v>
@@ -1237,7 +1237,7 @@
         <v>/seller/item</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -1255,14 +1255,14 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/seller/item/status</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>16</v>
